--- a/EI 78/MODIFICARE_1052/cat.ei-7.8 a.2018.xlsx
+++ b/EI 78/MODIFICARE_1052/cat.ei-7.8 a.2018.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bns\EI 78\MODIFICARE_1052\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B2CC7E3-F5DD-45F6-B470-2044472AE722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7A0B1-8C8C-42A2-A14D-0ADA4BF3159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nomenclatorul_Tarilor_CI" sheetId="1" r:id="rId1"/>
+    <sheet name="cl_country" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Nomenclatorul_Tarilor_CI!$5:$6</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="963">
   <si>
     <r>
       <t xml:space="preserve">Afganistan 
@@ -5738,6 +5739,723 @@
       </rPr>
       <t xml:space="preserve">  Цифровой код, в соответствии с Геономенклатурой Европейского Cоюза, которая используется в статистике международной торговли (товарами и услугами)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Afganistan </t>
+  </si>
+  <si>
+    <t>Africa de Sud</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anguilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua și Barbuda </t>
+  </si>
+  <si>
+    <t>Arabia Saudită</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaidjan  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas (insule) </t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh </t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda (insule) </t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius şi Saba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia și Herțegovina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana </t>
+  </si>
+  <si>
+    <t>Bouvet (insulă)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazilia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei Darussalam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo Verde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodgia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camerun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayman (insule)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cehia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceuta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">China </t>
+  </si>
+  <si>
+    <t>Christmas (insulă)</t>
+  </si>
+  <si>
+    <t>Ciad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cipru </t>
+  </si>
+  <si>
+    <t>Cocos sau Keeling (insule)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comore (insule)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook (insule)  </t>
+  </si>
+  <si>
+    <t>Coreea de Nord (Republica Populară Democrată Coreeană)</t>
+  </si>
+  <si>
+    <t>Coreea de Sud (Republica Coreea)</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cote d'Ivoire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croația </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba </t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danemarca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti </t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egipt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elveția </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emiratele Arabe Unite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritreea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini (fosta Swaziland) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etiopia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falkland (insule) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federația Rusă </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feroe (insule) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji </t>
+  </si>
+  <si>
+    <t>Filipine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finlanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franța </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia </t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia de Sud și insulele Sandwich de Sud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibraltar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grecia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada </t>
+  </si>
+  <si>
+    <t>Groenlanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guineea </t>
+  </si>
+  <si>
+    <t>Guineea Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guineea Ecuatorială </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heard și McDonald (insule) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong-Kong, Regiune Administrativă Specială  a Chinei </t>
+  </si>
+  <si>
+    <t xml:space="preserve">India </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonezia </t>
+  </si>
+  <si>
+    <t>Insulele Minore Îndepărtate ale Statelor Unite (inclusiv insula Midway)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iordania </t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran (Republică Islamică) </t>
+  </si>
+  <si>
+    <t>Irlanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japonia </t>
+  </si>
+  <si>
+    <t>Kârgâzstan, Republică</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazahstan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuweit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos (Republica Democrată Populară) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho </t>
+  </si>
+  <si>
+    <t>Letonia</t>
+  </si>
+  <si>
+    <t>Liban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lituania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxemburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macao, Regiune Administrativă Specială  a Chinei  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia de Nord </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia </t>
+  </si>
+  <si>
+    <t>Maldive (insule)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariane de Nord (insule) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maroc </t>
+  </si>
+  <si>
+    <t>Marshall (insule)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayotte (insulă) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronezia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muntenegru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger </t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niue </t>
+  </si>
+  <si>
+    <t>Norfolk (insulă)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norvegia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noua Caledonie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noua Zeelandă </t>
+  </si>
+  <si>
+    <t>Ţările de Jos (Netherlands)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau </t>
+  </si>
+  <si>
+    <t>Palestina, Stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua-Noua Guinee </t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitcairn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polinezia Franceză </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regatul Unit al Marii Britanii și Irlandei de Nord </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republica Arabă Siria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republica Centrafricană </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republica Democrată Congo </t>
+  </si>
+  <si>
+    <t>Republica Dominicană</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republica Unită Tanzania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">România </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda </t>
+  </si>
+  <si>
+    <t>Sahara Occidentală</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts şi Nevis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia </t>
+  </si>
+  <si>
+    <t>Sint Maarten (partea neerlandeză a insulei)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Pierre și Miquelon  </t>
+  </si>
+  <si>
+    <t>Saint Vincent şi Grenadinele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa Americană </t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome și Principe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles (insulе) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sfânta Elena (insulă) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sfântul Scaun (Statul Cetății Vaticanului) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovacia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon (insule) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka </t>
+  </si>
+  <si>
+    <t>Statele Unite ale Americii (inclusiv Puerto Rico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan </t>
+  </si>
+  <si>
+    <t>Sudanul de Sud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suedia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tadjikistan </t>
+  </si>
+  <si>
+    <t>Taiwan, provincie a Chinei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teritoriile Australe Franceze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teritoriul Britanic din Oceanul Indian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timorul de Est </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokelau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad și Tobago </t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turks și Caicos (insule) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ucraina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ungaria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu </t>
+  </si>
+  <si>
+    <t>Venezuela (Republica Bolivariană a Venezuelei)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgine Britanice (insule) </t>
+  </si>
+  <si>
+    <t>Virgine Americane (insule)</t>
+  </si>
+  <si>
+    <t>Wallis și Futuna (insule)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen </t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe </t>
+  </si>
+  <si>
+    <t>Ţări şi teritorii, care nu au fost specificate</t>
   </si>
 </sst>
 </file>
@@ -5973,7 +6691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6061,6 +6779,24 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6344,27 +7080,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>720</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>721</v>
       </c>
@@ -6374,7 +7110,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>722</v>
       </c>
@@ -6384,14 +7120,14 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>433</v>
       </c>
@@ -6403,7 +7139,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>544</v>
       </c>
@@ -6412,7 +7148,7 @@
       </c>
       <c r="C6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>442</v>
       </c>
@@ -6423,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>682</v>
       </c>
@@ -6434,7 +7170,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>443</v>
       </c>
@@ -6445,7 +7181,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>536</v>
       </c>
@@ -6456,7 +7192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>434</v>
       </c>
@@ -6467,7 +7203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>467</v>
       </c>
@@ -6478,7 +7214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>464</v>
       </c>
@@ -6489,7 +7225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>435</v>
       </c>
@@ -6500,7 +7236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>501</v>
       </c>
@@ -6511,7 +7247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>444</v>
       </c>
@@ -6522,7 +7258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>437</v>
       </c>
@@ -6533,7 +7269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>503</v>
       </c>
@@ -6544,7 +7280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>438</v>
       </c>
@@ -6555,7 +7291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>436</v>
       </c>
@@ -6566,7 +7302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>445</v>
       </c>
@@ -6577,7 +7313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>504</v>
       </c>
@@ -6588,7 +7324,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>450</v>
       </c>
@@ -6599,7 +7335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>507</v>
       </c>
@@ -6610,7 +7346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>506</v>
       </c>
@@ -6621,7 +7357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>517</v>
       </c>
@@ -6632,7 +7368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>447</v>
       </c>
@@ -6643,7 +7379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>518</v>
       </c>
@@ -6654,7 +7390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>512</v>
       </c>
@@ -6665,7 +7401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>513</v>
       </c>
@@ -6676,7 +7412,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>448</v>
       </c>
@@ -6687,7 +7423,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>698</v>
       </c>
@@ -6698,7 +7434,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>446</v>
       </c>
@@ -6709,7 +7445,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>516</v>
       </c>
@@ -6720,7 +7456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>515</v>
       </c>
@@ -6731,7 +7467,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>449</v>
       </c>
@@ -6742,7 +7478,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>508</v>
       </c>
@@ -6753,7 +7489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>511</v>
       </c>
@@ -6764,7 +7500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>510</v>
       </c>
@@ -6775,7 +7511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>509</v>
       </c>
@@ -6786,7 +7522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>505</v>
       </c>
@@ -6797,7 +7533,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>530</v>
       </c>
@@ -6808,7 +7544,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>580</v>
       </c>
@@ -6819,7 +7555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>528</v>
       </c>
@@ -6830,7 +7566,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>451</v>
       </c>
@@ -6841,7 +7577,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>589</v>
       </c>
@@ -6852,7 +7588,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>533</v>
       </c>
@@ -6863,7 +7599,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>685</v>
       </c>
@@ -6874,7 +7610,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>526</v>
       </c>
@@ -6885,7 +7621,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>527</v>
       </c>
@@ -6896,7 +7632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>532</v>
       </c>
@@ -6907,7 +7643,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>643</v>
       </c>
@@ -6918,7 +7654,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>529</v>
       </c>
@@ -6929,7 +7665,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>520</v>
       </c>
@@ -6940,7 +7676,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>454</v>
       </c>
@@ -6951,7 +7687,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>581</v>
       </c>
@@ -6962,7 +7698,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>521</v>
       </c>
@@ -6973,7 +7709,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>522</v>
       </c>
@@ -6984,7 +7720,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>586</v>
       </c>
@@ -6995,7 +7731,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>568</v>
       </c>
@@ -7006,7 +7742,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>455</v>
       </c>
@@ -7017,7 +7753,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>453</v>
       </c>
@@ -7028,7 +7764,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>562</v>
       </c>
@@ -7039,7 +7775,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>456</v>
       </c>
@@ -7050,7 +7786,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>703</v>
       </c>
@@ -7061,7 +7797,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>534</v>
       </c>
@@ -7072,7 +7808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>457</v>
       </c>
@@ -7083,7 +7819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>535</v>
       </c>
@@ -7094,7 +7830,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>459</v>
       </c>
@@ -7105,7 +7841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>460</v>
       </c>
@@ -7116,7 +7852,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>452</v>
       </c>
@@ -7127,7 +7863,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>440</v>
       </c>
@@ -7138,7 +7874,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>461</v>
       </c>
@@ -7149,7 +7885,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>524</v>
       </c>
@@ -7160,7 +7896,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>650</v>
       </c>
@@ -7171,7 +7907,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>463</v>
       </c>
@@ -7182,7 +7918,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>545</v>
       </c>
@@ -7193,7 +7929,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>633</v>
       </c>
@@ -7204,7 +7940,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>694</v>
       </c>
@@ -7215,7 +7951,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>542</v>
       </c>
@@ -7226,7 +7962,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>629</v>
       </c>
@@ -7237,7 +7973,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>468</v>
       </c>
@@ -7248,7 +7984,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>469</v>
       </c>
@@ -7259,7 +7995,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>470</v>
       </c>
@@ -7270,7 +8006,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>551</v>
       </c>
@@ -7281,7 +8017,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>471</v>
       </c>
@@ -7292,7 +8028,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>557</v>
       </c>
@@ -7303,7 +8039,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>523</v>
       </c>
@@ -7314,7 +8050,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>472</v>
       </c>
@@ -7325,7 +8061,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>473</v>
       </c>
@@ -7336,7 +8072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>474</v>
       </c>
@@ -7347,7 +8083,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
         <v>549</v>
       </c>
@@ -7358,7 +8094,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>550</v>
       </c>
@@ -7369,7 +8105,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>475</v>
       </c>
@@ -7380,7 +8116,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>558</v>
       </c>
@@ -7391,7 +8127,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>547</v>
       </c>
@@ -7402,7 +8138,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>555</v>
       </c>
@@ -7413,7 +8149,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>554</v>
       </c>
@@ -7424,7 +8160,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>552</v>
       </c>
@@ -7435,7 +8171,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>553</v>
       </c>
@@ -7446,7 +8182,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>695</v>
       </c>
@@ -7457,7 +8193,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>561</v>
       </c>
@@ -7468,7 +8204,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
         <v>559</v>
       </c>
@@ -7479,7 +8215,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
         <v>476</v>
       </c>
@@ -7490,7 +8226,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>564</v>
       </c>
@@ -7501,7 +8237,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>691</v>
       </c>
@@ -7512,7 +8248,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>576</v>
       </c>
@@ -7523,7 +8259,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>575</v>
       </c>
@@ -7534,7 +8270,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>478</v>
       </c>
@@ -7545,7 +8281,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
         <v>571</v>
       </c>
@@ -7556,7 +8292,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>479</v>
       </c>
@@ -7567,7 +8303,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
         <v>565</v>
       </c>
@@ -7578,7 +8314,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>480</v>
       </c>
@@ -7589,7 +8325,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
         <v>566</v>
       </c>
@@ -7600,7 +8336,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>567</v>
       </c>
@@ -7611,7 +8347,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
         <v>578</v>
       </c>
@@ -7622,7 +8358,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>569</v>
       </c>
@@ -7633,7 +8369,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>481</v>
       </c>
@@ -7644,7 +8380,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
         <v>482</v>
       </c>
@@ -7655,7 +8391,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>686</v>
       </c>
@@ -7666,7 +8402,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
         <v>577</v>
       </c>
@@ -7677,7 +8413,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
         <v>483</v>
       </c>
@@ -7688,7 +8424,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>601</v>
       </c>
@@ -7699,7 +8435,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
         <v>602</v>
       </c>
@@ -7710,7 +8446,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>591</v>
       </c>
@@ -7721,7 +8457,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>599</v>
       </c>
@@ -7732,7 +8468,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>603</v>
       </c>
@@ -7743,7 +8479,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>484</v>
       </c>
@@ -7754,7 +8490,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>592</v>
       </c>
@@ -7765,7 +8501,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>485</v>
       </c>
@@ -7776,7 +8512,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>488</v>
       </c>
@@ -7787,7 +8523,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>606</v>
       </c>
@@ -7798,7 +8534,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>600</v>
       </c>
@@ -7809,7 +8545,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
         <v>604</v>
       </c>
@@ -7820,7 +8556,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>490</v>
       </c>
@@ -7831,7 +8567,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>619</v>
       </c>
@@ -7842,7 +8578,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>607</v>
       </c>
@@ -7853,7 +8589,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
         <v>618</v>
       </c>
@@ -7864,7 +8600,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
         <v>616</v>
       </c>
@@ -7875,7 +8611,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>486</v>
       </c>
@@ -7886,7 +8622,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
         <v>605</v>
       </c>
@@ -7897,7 +8633,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>608</v>
       </c>
@@ -7908,7 +8644,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>489</v>
       </c>
@@ -7919,7 +8655,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
         <v>688</v>
       </c>
@@ -7930,7 +8666,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
         <v>687</v>
       </c>
@@ -7941,7 +8677,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>609</v>
       </c>
@@ -7952,7 +8688,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>548</v>
       </c>
@@ -7963,7 +8699,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>596</v>
       </c>
@@ -7974,7 +8710,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>617</v>
       </c>
@@ -7985,7 +8721,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
         <v>610</v>
       </c>
@@ -7996,7 +8732,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>487</v>
       </c>
@@ -8007,7 +8743,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
         <v>615</v>
       </c>
@@ -8018,7 +8754,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
         <v>491</v>
       </c>
@@ -8029,7 +8765,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
         <v>622</v>
       </c>
@@ -8040,7 +8776,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
         <v>612</v>
       </c>
@@ -8051,7 +8787,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
         <v>493</v>
       </c>
@@ -8062,7 +8798,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>492</v>
       </c>
@@ -8073,7 +8809,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
         <v>614</v>
       </c>
@@ -8084,7 +8820,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>611</v>
       </c>
@@ -8095,7 +8831,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
         <v>621</v>
       </c>
@@ -8106,7 +8842,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>494</v>
       </c>
@@ -8117,7 +8853,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
         <v>613</v>
       </c>
@@ -8128,7 +8864,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>626</v>
       </c>
@@ -8139,7 +8875,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
         <v>624</v>
       </c>
@@ -8150,7 +8886,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>495</v>
       </c>
@@ -8161,7 +8897,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
         <v>623</v>
       </c>
@@ -8172,7 +8908,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>635</v>
       </c>
@@ -8183,7 +8919,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
         <v>625</v>
       </c>
@@ -8194,7 +8930,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
         <v>496</v>
       </c>
@@ -8205,7 +8941,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
         <v>628</v>
       </c>
@@ -8216,7 +8952,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>636</v>
       </c>
@@ -8227,7 +8963,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
         <v>497</v>
       </c>
@@ -8238,7 +8974,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>632</v>
       </c>
@@ -8249,7 +8985,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
         <v>627</v>
       </c>
@@ -8260,7 +8996,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>630</v>
       </c>
@@ -8271,7 +9007,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
         <v>631</v>
       </c>
@@ -8282,7 +9018,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>498</v>
       </c>
@@ -8293,7 +9029,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
         <v>546</v>
       </c>
@@ -8304,7 +9040,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
         <v>648</v>
       </c>
@@ -8315,7 +9051,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
         <v>525</v>
       </c>
@@ -8326,7 +9062,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
         <v>519</v>
       </c>
@@ -8337,7 +9073,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>458</v>
       </c>
@@ -8348,7 +9084,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>697</v>
       </c>
@@ -8359,7 +9095,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>499</v>
       </c>
@@ -8370,7 +9106,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
         <v>500</v>
       </c>
@@ -8381,7 +9117,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>465</v>
       </c>
@@ -8392,7 +9128,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>709</v>
       </c>
@@ -8403,7 +9139,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>570</v>
       </c>
@@ -8414,7 +9150,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>593</v>
       </c>
@@ -8425,7 +9161,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
         <v>712</v>
       </c>
@@ -8436,7 +9172,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
         <v>584</v>
       </c>
@@ -8447,7 +9183,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>679</v>
       </c>
@@ -8458,7 +9194,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
         <v>642</v>
       </c>
@@ -8469,7 +9205,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>439</v>
       </c>
@@ -8480,7 +9216,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
         <v>684</v>
       </c>
@@ -8491,7 +9227,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>647</v>
       </c>
@@ -8502,7 +9238,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>541</v>
       </c>
@@ -8513,7 +9249,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>634</v>
       </c>
@@ -8524,7 +9260,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
         <v>715</v>
       </c>
@@ -8535,7 +9271,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>640</v>
       </c>
@@ -8546,7 +9282,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>645</v>
       </c>
@@ -8557,7 +9293,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
         <v>678</v>
       </c>
@@ -8568,7 +9304,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>538</v>
       </c>
@@ -8579,7 +9315,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
         <v>641</v>
       </c>
@@ -8590,7 +9326,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>646</v>
       </c>
@@ -8601,7 +9337,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A206" s="12" t="s">
         <v>537</v>
       </c>
@@ -8612,7 +9348,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
         <v>637</v>
       </c>
@@ -8623,7 +9359,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A208" s="12" t="s">
         <v>539</v>
       </c>
@@ -8634,7 +9370,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>462</v>
       </c>
@@ -8645,7 +9381,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
         <v>598</v>
       </c>
@@ -8656,7 +9392,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="211" spans="1:3" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
         <v>675</v>
       </c>
@@ -8667,7 +9403,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>595</v>
       </c>
@@ -8678,7 +9414,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="213" spans="1:3" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A213" s="15" t="s">
         <v>597</v>
       </c>
@@ -8689,7 +9425,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
         <v>502</v>
       </c>
@@ -8700,7 +9436,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="s">
         <v>540</v>
       </c>
@@ -8711,7 +9447,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
         <v>659</v>
       </c>
@@ -8722,7 +9458,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
         <v>660</v>
       </c>
@@ -8733,7 +9469,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>653</v>
       </c>
@@ -8744,7 +9480,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="219" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
         <v>477</v>
       </c>
@@ -8755,7 +9491,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
         <v>657</v>
       </c>
@@ -8766,7 +9502,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
         <v>662</v>
       </c>
@@ -8777,7 +9513,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="s">
         <v>654</v>
       </c>
@@ -8788,7 +9524,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
         <v>661</v>
       </c>
@@ -8799,7 +9535,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
         <v>658</v>
       </c>
@@ -8810,7 +9546,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="s">
         <v>665</v>
       </c>
@@ -8821,7 +9557,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A226" s="12" t="s">
         <v>655</v>
       </c>
@@ -8832,7 +9568,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A227" s="12" t="s">
         <v>656</v>
       </c>
@@ -8843,7 +9579,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>663</v>
       </c>
@@ -8854,7 +9590,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
         <v>651</v>
       </c>
@@ -8865,7 +9601,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="s">
         <v>664</v>
       </c>
@@ -8876,7 +9612,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A231" s="12" t="s">
         <v>670</v>
       </c>
@@ -8887,7 +9623,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A232" s="12" t="s">
         <v>671</v>
       </c>
@@ -8898,7 +9634,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
         <v>563</v>
       </c>
@@ -8909,7 +9645,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
         <v>676</v>
       </c>
@@ -8920,7 +9656,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
         <v>677</v>
       </c>
@@ -8931,7 +9667,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>672</v>
       </c>
@@ -8942,7 +9678,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>673</v>
       </c>
@@ -8953,7 +9689,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
         <v>594</v>
       </c>
@@ -8964,7 +9700,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>585</v>
       </c>
@@ -8975,7 +9711,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
         <v>681</v>
       </c>
@@ -8987,7 +9723,7 @@
       </c>
       <c r="I240" s="11"/>
     </row>
-    <row r="241" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>683</v>
       </c>
@@ -8998,7 +9734,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
         <v>674</v>
       </c>
@@ -9009,7 +9745,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
         <v>689</v>
       </c>
@@ -9020,7 +9756,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
         <v>690</v>
       </c>
@@ -9031,7 +9767,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
         <v>692</v>
       </c>
@@ -9042,194 +9778,194 @@
         <v>717</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="12"/>
       <c r="B246" s="14"/>
       <c r="C246" s="17"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
     </row>
-    <row r="248" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="22" t="s">
         <v>693</v>
       </c>
       <c r="B248" s="23"/>
       <c r="C248" s="23"/>
     </row>
-    <row r="249" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="30" t="s">
         <v>723</v>
       </c>
       <c r="B249" s="31"/>
       <c r="C249" s="31"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="19" t="s">
         <v>432</v>
       </c>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B252" s="4"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B254" s="4"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B256" s="4"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="4"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="4"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="4"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="4"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="4"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" s="4"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" s="4"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" s="4"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" s="4"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" s="4"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="4"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" s="4"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="4"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="4"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="4"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="4"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="4"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="4"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" s="4"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" s="4"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" s="4"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284" s="4"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" s="4"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" s="4"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" s="4"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" s="4"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B289" s="4"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B290" s="4"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291" s="4"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292" s="4"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B293" s="4"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295" s="4"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B296" s="4"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297" s="4"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B298" s="4"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B299" s="4"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B300" s="4"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301" s="4"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303" s="4"/>
     </row>
   </sheetData>
@@ -9249,4 +9985,4088 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0BC782-5C38-48B0-87F4-796BFB98E2AC}">
+  <dimension ref="A1:E239"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C239" sqref="C239"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="1.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="33">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="32">
+        <v>660</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>16</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
+        <v>21</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="33">
+        <v>32</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="33">
+        <v>34</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="33">
+        <v>35</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="33">
+        <v>36</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="33">
+        <v>37</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="33">
+        <v>38</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
+        <v>39</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="33">
+        <v>40</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="33">
+        <v>41</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="33">
+        <v>42</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="33">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="33">
+        <v>44</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="33">
+        <v>45</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="33">
+        <v>46</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="33">
+        <v>47</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="33">
+        <v>48</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="33">
+        <v>49</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="33">
+        <v>50</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="33">
+        <v>51</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="33">
+        <v>52</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="33">
+        <v>53</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="33">
+        <v>54</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="33">
+        <v>55</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="33">
+        <v>56</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="33">
+        <v>57</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="33">
+        <v>58</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="33">
+        <v>59</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>704</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="33">
+        <v>60</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
+        <v>61</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="33">
+        <v>62</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="33">
+        <v>63</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="33">
+        <v>64</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="33">
+        <v>65</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="33">
+        <v>66</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="33">
+        <v>67</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="33">
+        <v>68</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="37" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="33">
+        <v>69</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="33">
+        <v>70</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="33">
+        <v>71</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="33">
+        <v>72</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" s="37" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="33">
+        <v>73</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="33">
+        <v>74</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="37" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="33">
+        <v>75</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="37" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="33">
+        <v>76</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" s="37" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="33">
+        <v>77</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="33">
+        <v>78</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="33">
+        <v>79</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="37" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="33">
+        <v>80</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" s="37" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="33">
+        <v>81</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="E81" s="37" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="33">
+        <v>82</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="33">
+        <v>83</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" s="37" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="33">
+        <v>84</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="33">
+        <v>85</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="37" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="33">
+        <v>86</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="37" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="33">
+        <v>87</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="37" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="33">
+        <v>88</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88" s="37" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="33">
+        <v>89</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" s="37" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="33">
+        <v>90</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" s="37" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="33">
+        <v>91</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E91" s="37" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="33">
+        <v>92</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92" s="37" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="33">
+        <v>93</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" s="37" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="33">
+        <v>94</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" s="37" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="33">
+        <v>95</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" s="37" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="33">
+        <v>96</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="33">
+        <v>97</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="E97" s="37" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="33">
+        <v>98</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" s="37" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="33">
+        <v>99</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E99" s="37" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="33">
+        <v>100</v>
+      </c>
+      <c r="B100" s="35" t="s">
+        <v>691</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E100" s="37" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="33">
+        <v>101</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E101" s="37" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="33">
+        <v>102</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E102" s="37" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="33">
+        <v>103</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E103" s="37" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="33">
+        <v>104</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E104" s="37" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="33">
+        <v>105</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E105" s="37" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="33">
+        <v>106</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" s="37" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="33">
+        <v>107</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E107" s="37" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="33">
+        <v>108</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" s="37" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="33">
+        <v>109</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E109" s="37" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="33">
+        <v>110</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="E110" s="37" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="33">
+        <v>111</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E111" s="37" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="33">
+        <v>112</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E112" s="37" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="33">
+        <v>113</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" s="37" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="33">
+        <v>114</v>
+      </c>
+      <c r="B114" s="35" t="s">
+        <v>686</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="E114" s="37" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="33">
+        <v>115</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="33">
+        <v>116</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E116" s="37" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="33">
+        <v>117</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E117" s="37" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="33">
+        <v>118</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E118" s="37" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="33">
+        <v>119</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C119" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" s="37" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="33">
+        <v>120</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E120" s="37" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="33">
+        <v>121</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E121" s="37" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="33">
+        <v>122</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="33">
+        <v>123</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E123" s="37" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="33">
+        <v>124</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C124" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E124" s="37" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="33">
+        <v>125</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="E125" s="37" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="33">
+        <v>126</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C126" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="37" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="33">
+        <v>127</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E127" s="37" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="33">
+        <v>128</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C128" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E128" s="37" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="33">
+        <v>129</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C129" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E129" s="37" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="33">
+        <v>130</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C130" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="E130" s="37" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="33">
+        <v>131</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C131" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E131" s="37" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="33">
+        <v>132</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E132" s="37" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="33">
+        <v>133</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>696</v>
+      </c>
+      <c r="E133" s="37" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="33">
+        <v>134</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E134" s="37" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="33">
+        <v>135</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="E135" s="37" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="33">
+        <v>136</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C136" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E136" s="37" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="33">
+        <v>137</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E137" s="37" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="33">
+        <v>138</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C138" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E138" s="37" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="33">
+        <v>139</v>
+      </c>
+      <c r="B139" s="35" t="s">
+        <v>687</v>
+      </c>
+      <c r="C139" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D139" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E139" s="37" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="33">
+        <v>140</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C140" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E140" s="37" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="33">
+        <v>141</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C141" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E141" s="37" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="33">
+        <v>142</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C142" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E142" s="37" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="33">
+        <v>143</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="C143" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E143" s="37" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="33">
+        <v>144</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C144" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E144" s="37" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="33">
+        <v>145</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C145" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E145" s="37" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="33">
+        <v>146</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C146" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E146" s="37" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="33">
+        <v>147</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C147" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E147" s="37" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="33">
+        <v>148</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="C148" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E148" s="37" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="33">
+        <v>149</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E149" s="37" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="33">
+        <v>150</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C150" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E150" s="37" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="33">
+        <v>151</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C151" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E151" s="37" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="33">
+        <v>152</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C152" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E152" s="37" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="33">
+        <v>153</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C153" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E153" s="37" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="33">
+        <v>154</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C154" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="E154" s="37" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="33">
+        <v>155</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C155" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="E155" s="37" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="33">
+        <v>156</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="C156" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E156" s="37" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="33">
+        <v>157</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C157" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E157" s="37" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="33">
+        <v>158</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C158" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D158" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="E158" s="37" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="33">
+        <v>159</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C159" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E159" s="37" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="33">
+        <v>160</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C160" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E160" s="37" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="33">
+        <v>161</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C161" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E161" s="37" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="33">
+        <v>162</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C162" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="E162" s="37" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="33">
+        <v>163</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C163" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E163" s="37" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="33">
+        <v>164</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="C164" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E164" s="37" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="33">
+        <v>165</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E165" s="37" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="33">
+        <v>166</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C166" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E166" s="37" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="33">
+        <v>167</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C167" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E167" s="37" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="33">
+        <v>168</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C168" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E168" s="37" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="33">
+        <v>169</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C169" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E169" s="37" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="33">
+        <v>170</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C170" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E170" s="37" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="33">
+        <v>171</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E171" s="37" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="33">
+        <v>172</v>
+      </c>
+      <c r="B172" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="C172" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D172" s="35" t="s">
+        <v>708</v>
+      </c>
+      <c r="E172" s="37" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="33">
+        <v>173</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C173" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="E173" s="37" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="33">
+        <v>174</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C174" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E174" s="37" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="33">
+        <v>175</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E175" s="37" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="33">
+        <v>176</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C176" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E176" s="37" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="33">
+        <v>177</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="C177" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E177" s="37" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="33">
+        <v>178</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C178" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E178" s="37" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="33">
+        <v>179</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C179" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E179" s="37" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="33">
+        <v>180</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C180" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E180" s="37" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="33">
+        <v>181</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C181" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="E181" s="37" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="33">
+        <v>182</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C182" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E182" s="37" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="33">
+        <v>183</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C183" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E183" s="37" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="33">
+        <v>184</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="C184" s="34" t="s">
+        <v>713</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="E184" s="37" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="33">
+        <v>185</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C185" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E185" s="37" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="33">
+        <v>186</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C186" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="E186" s="37" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="33">
+        <v>187</v>
+      </c>
+      <c r="B187" s="35" t="s">
+        <v>642</v>
+      </c>
+      <c r="C187" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D187" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="E187" s="37" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="33">
+        <v>188</v>
+      </c>
+      <c r="B188" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C188" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D188" s="35" t="s">
+        <v>572</v>
+      </c>
+      <c r="E188" s="37" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="33">
+        <v>189</v>
+      </c>
+      <c r="B189" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="C189" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D189" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="E189" s="37" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="33">
+        <v>190</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C190" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E190" s="37" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="33">
+        <v>191</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C191" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E191" s="37" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="33">
+        <v>192</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C192" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E192" s="37" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="33">
+        <v>193</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C193" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E193" s="37" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="33">
+        <v>194</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C194" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="E194" s="37" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="33">
+        <v>195</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C195" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E195" s="37" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="33">
+        <v>196</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C196" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E196" s="37" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="33">
+        <v>197</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C197" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E197" s="37" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="33">
+        <v>198</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C198" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E198" s="37" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="33">
+        <v>199</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C199" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E199" s="37" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="33">
+        <v>200</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C200" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E200" s="37" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="33">
+        <v>201</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="C201" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="E201" s="37" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="33">
+        <v>202</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C202" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E202" s="37" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="33">
+        <v>203</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C203" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E203" s="37" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="33">
+        <v>204</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C204" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="E204" s="37" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="33">
+        <v>205</v>
+      </c>
+      <c r="B205" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="C205" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="D205" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="E205" s="37" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="33">
+        <v>206</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C206" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E206" s="37" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="33">
+        <v>207</v>
+      </c>
+      <c r="B207" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="C207" s="36" t="s">
+        <v>667</v>
+      </c>
+      <c r="D207" s="35" t="s">
+        <v>668</v>
+      </c>
+      <c r="E207" s="37" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="33">
+        <v>208</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C208" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E208" s="37" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="33">
+        <v>209</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C209" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E209" s="37" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="33">
+        <v>210</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="C210" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E210" s="37" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="33">
+        <v>211</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="C211" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="E211" s="37" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="33">
+        <v>212</v>
+      </c>
+      <c r="B212" s="35" t="s">
+        <v>653</v>
+      </c>
+      <c r="C212" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="D212" s="35" t="s">
+        <v>652</v>
+      </c>
+      <c r="E212" s="37" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="33">
+        <v>213</v>
+      </c>
+      <c r="B213" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="C213" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="D213" s="35" t="s">
+        <v>574</v>
+      </c>
+      <c r="E213" s="37" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="33">
+        <v>214</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C214" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E214" s="37" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="33">
+        <v>215</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C215" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E215" s="37" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="33">
+        <v>216</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C216" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E216" s="37" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="33">
+        <v>217</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="C217" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E217" s="37" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="33">
+        <v>218</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C218" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E218" s="37" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="33">
+        <v>219</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="C219" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E219" s="37" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="33">
+        <v>220</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C220" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E220" s="37" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="33">
+        <v>221</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C221" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E221" s="37" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="33">
+        <v>222</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="C222" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E222" s="37" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="33">
+        <v>223</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C223" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E223" s="37" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="33">
+        <v>224</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C224" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E224" s="37" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="33">
+        <v>225</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C225" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E225" s="37" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="33">
+        <v>226</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C226" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E226" s="37" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="33">
+        <v>227</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E227" s="37" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="33">
+        <v>228</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C228" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E228" s="37" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="33">
+        <v>229</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C229" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="D229" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E229" s="37" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="33">
+        <v>230</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C230" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E230" s="37" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="33">
+        <v>231</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C231" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E231" s="37" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="33">
+        <v>232</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C232" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D232" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E232" s="37" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="33">
+        <v>233</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C233" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="E233" s="37" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="33">
+        <v>234</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C234" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E234" s="37" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="33">
+        <v>235</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C235" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E235" s="37" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="33">
+        <v>236</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C236" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E236" s="37" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="33">
+        <v>237</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C237" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E237" s="37" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="33">
+        <v>238</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C238" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E238" s="37" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="33">
+        <v>239</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C239" s="34">
+        <v>999</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="E239" s="37" t="s">
+        <v>962</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>